--- a/raw_data/20200818_saline/20200818_Sensor0_Test_17.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_17.xlsx
@@ -1,993 +1,1409 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFCFC8F-E19C-4CDC-8179-A228088A48E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>14403.176397</v>
+        <v>14403.176396999999</v>
       </c>
       <c r="B2" s="1">
-        <v>4.000882</v>
+        <v>4.0008819999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>902.779000</v>
+        <v>902.779</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.600000</v>
+        <v>-195.6</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>14413.305664</v>
       </c>
       <c r="G2" s="1">
-        <v>4.003696</v>
+        <v>4.0036959999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>919.592000</v>
+        <v>919.59199999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.377000</v>
+        <v>-165.37700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>14423.808946</v>
+        <v>14423.808945999999</v>
       </c>
       <c r="L2" s="1">
-        <v>4.006614</v>
+        <v>4.0066139999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>940.963000</v>
+        <v>940.96299999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.425000</v>
+        <v>-118.425</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>14434.283956</v>
+        <v>14434.283955999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.009523</v>
+        <v>4.0095229999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>947.314000</v>
+        <v>947.31399999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.197000</v>
+        <v>-103.197</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>14444.850760</v>
+        <v>14444.850759999999</v>
       </c>
       <c r="V2" s="1">
-        <v>4.012459</v>
+        <v>4.0124589999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>953.520000</v>
+        <v>953.52</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.573700</v>
+        <v>-89.573700000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>14455.615928</v>
+        <v>14455.615927999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.015449</v>
+        <v>4.0154490000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.616000</v>
+        <v>960.61599999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.266300</v>
+        <v>-80.266300000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>14466.143014</v>
+        <v>14466.143013999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.018373</v>
+        <v>4.0183730000000004</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.509000</v>
+        <v>965.50900000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.009400</v>
+        <v>-80.009399999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>14476.533713</v>
+        <v>14476.533713000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.021259</v>
+        <v>4.0212589999999997</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.462000</v>
+        <v>973.46199999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.011800</v>
+        <v>-88.011799999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>14487.103423</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.024195</v>
+        <v>4.0241949999999997</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.684000</v>
+        <v>982.68399999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.137000</v>
+        <v>-103.137</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>14497.725924</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.027146</v>
+        <v>4.0271460000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.124000</v>
+        <v>994.12400000000002</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.931000</v>
+        <v>-124.931</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>14508.855506</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.030238</v>
+        <v>4.0302379999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.790000</v>
+        <v>1003.79</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.891000</v>
+        <v>-143.89099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>14519.794245</v>
+        <v>14519.794244999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.033276</v>
+        <v>4.0332759999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.350000</v>
+        <v>1049.3499999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.524000</v>
+        <v>-229.524</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>14530.824810</v>
+        <v>14530.82481</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.036340</v>
+        <v>4.03634</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.007000</v>
+        <v>-367.00700000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>14541.632140</v>
+        <v>14541.63214</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.039342</v>
+        <v>4.0393420000000004</v>
       </c>
       <c r="BP2" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-579.796000</v>
+        <v>-579.79600000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>14552.387861</v>
+        <v>14552.387860999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.042330</v>
+        <v>4.0423299999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1409.970000</v>
+        <v>1409.97</v>
       </c>
       <c r="BV2" s="1">
-        <v>-807.577000</v>
+        <v>-807.577</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>14563.039467</v>
+        <v>14563.039467000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.045289</v>
+        <v>4.0452890000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1574.130000</v>
+        <v>1574.13</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1045.060000</v>
+        <v>-1045.06</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>14574.091292</v>
+        <v>14574.091291999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.048359</v>
+        <v>4.0483589999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>1989.770000</v>
+        <v>1989.77</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1600.310000</v>
+        <v>-1600.31</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>14403.317238</v>
       </c>
       <c r="B3" s="1">
-        <v>4.000921</v>
+        <v>4.0009209999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>902.646000</v>
+        <v>902.64599999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.606000</v>
+        <v>-195.60599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>14413.717873</v>
       </c>
       <c r="G3" s="1">
-        <v>4.003811</v>
+        <v>4.0038109999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>919.462000</v>
+        <v>919.46199999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.265000</v>
+        <v>-165.26499999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>14424.169571</v>
       </c>
       <c r="L3" s="1">
-        <v>4.006714</v>
+        <v>4.0067139999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>941.092000</v>
+        <v>941.09199999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.440000</v>
+        <v>-118.44</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>14434.670341</v>
+        <v>14434.670340999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.009631</v>
+        <v>4.0096309999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>947.312000</v>
+        <v>947.31200000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.234000</v>
+        <v>-103.23399999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>14445.233143</v>
+        <v>14445.233142999999</v>
       </c>
       <c r="V3" s="1">
-        <v>4.012565</v>
+        <v>4.0125650000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>953.579000</v>
+        <v>953.57899999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.552500</v>
+        <v>-89.552499999999995</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>14456.351494</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.015653</v>
+        <v>4.0156530000000004</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.485000</v>
+        <v>960.48500000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.304600</v>
+        <v>-80.304599999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>14466.486713</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.018469</v>
+        <v>4.0184689999999996</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.527000</v>
+        <v>965.52700000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.010200</v>
+        <v>-80.010199999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>14476.919596</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.021367</v>
+        <v>4.0213669999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.476000</v>
+        <v>973.476</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.028800</v>
+        <v>-88.028800000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>14487.473934</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.024298</v>
+        <v>4.0242979999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.704000</v>
+        <v>982.70399999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.174000</v>
+        <v>-103.17400000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>14498.426625</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.027341</v>
+        <v>4.0273409999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.107000</v>
+        <v>994.10699999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.969000</v>
+        <v>-124.96899999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>14509.545441</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.030429</v>
+        <v>4.0304289999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.800000</v>
+        <v>1003.8</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.871000</v>
+        <v>-143.87100000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>14520.242131</v>
+        <v>14520.242131000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.033401</v>
+        <v>4.0334009999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.350000</v>
+        <v>1049.3499999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.517000</v>
+        <v>-229.517</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>14531.227060</v>
+        <v>14531.227059999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.036452</v>
+        <v>4.0364519999999997</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.200000</v>
+        <v>1129.2</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.990000</v>
+        <v>-366.99</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>14542.071062</v>
+        <v>14542.071062000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.039464</v>
+        <v>4.0394639999999997</v>
       </c>
       <c r="BP3" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-579.864000</v>
+        <v>-579.86400000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>14552.828793</v>
+        <v>14552.828793000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.042452</v>
+        <v>4.0424519999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1409.940000</v>
+        <v>1409.94</v>
       </c>
       <c r="BV3" s="1">
-        <v>-807.555000</v>
+        <v>-807.55499999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>14563.528490</v>
+        <v>14563.528490000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.045425</v>
+        <v>4.0454249999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1574.230000</v>
+        <v>1574.23</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1045.230000</v>
+        <v>-1045.23</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>14574.639420</v>
+        <v>14574.63942</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.048511</v>
+        <v>4.0485110000000004</v>
       </c>
       <c r="CE3" s="1">
-        <v>1990.340000</v>
+        <v>1990.34</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1599.010000</v>
+        <v>-1599.01</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>14403.660958</v>
       </c>
@@ -995,193 +1411,193 @@
         <v>4.001017</v>
       </c>
       <c r="C4" s="1">
-        <v>902.691000</v>
+        <v>902.69100000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.472000</v>
+        <v>-195.47200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>14414.065535</v>
       </c>
       <c r="G4" s="1">
-        <v>4.003907</v>
+        <v>4.0039069999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>919.356000</v>
+        <v>919.35599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.590000</v>
+        <v>-165.59</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>14424.514765</v>
       </c>
       <c r="L4" s="1">
-        <v>4.006810</v>
+        <v>4.0068099999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>940.781000</v>
+        <v>940.78099999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.528000</v>
+        <v>-118.52800000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>14435.365764</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.009824</v>
+        <v>4.0098240000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>947.295000</v>
+        <v>947.29499999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.188000</v>
+        <v>-103.188</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>14445.922085</v>
       </c>
       <c r="V4" s="1">
-        <v>4.012756</v>
+        <v>4.0127560000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>953.518000</v>
+        <v>953.51800000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.516300</v>
+        <v>-89.516300000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>14456.704118</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.015751</v>
+        <v>4.0157509999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.534000</v>
+        <v>960.53399999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.298900</v>
+        <v>-80.298900000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>14466.828654</v>
+        <v>14466.828654000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.018564</v>
+        <v>4.0185639999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.529000</v>
+        <v>965.529</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.011700</v>
+        <v>-80.011700000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>14477.267261</v>
+        <v>14477.267261000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.021463</v>
+        <v>4.0214629999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.468000</v>
+        <v>973.46799999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.990200</v>
+        <v>-87.990200000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>14488.143367</v>
+        <v>14488.143367000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.024484</v>
+        <v>4.0244840000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.688000</v>
+        <v>982.68799999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.167000</v>
+        <v>-103.167</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>14498.857119</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.027460</v>
+        <v>4.0274599999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.087000</v>
+        <v>994.08699999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.965000</v>
+        <v>-124.965</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>14509.957584</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.030544</v>
+        <v>4.0305439999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.844000</v>
+        <v>-143.84399999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>14520.602226</v>
+        <v>14520.602226000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.033501</v>
+        <v>4.0335010000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.370000</v>
+        <v>1049.3699999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.508000</v>
+        <v>-229.50800000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>14531.602501</v>
+        <v>14531.602500999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>4.036556</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.990000</v>
+        <v>-366.99</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>14542.466902</v>
@@ -1190,61 +1606,61 @@
         <v>4.039574</v>
       </c>
       <c r="BP4" s="1">
-        <v>1261.410000</v>
+        <v>1261.4100000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-579.884000</v>
+        <v>-579.88400000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>14553.253380</v>
+        <v>14553.25338</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.042570</v>
+        <v>4.0425700000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1410.000000</v>
+        <v>1410</v>
       </c>
       <c r="BV4" s="1">
-        <v>-807.473000</v>
+        <v>-807.47299999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>14563.981833</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.045551</v>
+        <v>4.0455509999999997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1574.180000</v>
+        <v>1574.18</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1045.060000</v>
+        <v>-1045.06</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>14575.159210</v>
+        <v>14575.15921</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.048655</v>
+        <v>4.0486550000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1988.670000</v>
+        <v>1988.67</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1598.900000</v>
+        <v>-1598.9</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>14404.001708</v>
       </c>
@@ -1252,285 +1668,285 @@
         <v>4.001112</v>
       </c>
       <c r="C5" s="1">
-        <v>902.861000</v>
+        <v>902.86099999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.649000</v>
+        <v>-195.649</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>14414.412735</v>
       </c>
       <c r="G5" s="1">
-        <v>4.004004</v>
+        <v>4.0040040000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>919.430000</v>
+        <v>919.43</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.572000</v>
+        <v>-165.572</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>14425.204224</v>
+        <v>14425.204223999999</v>
       </c>
       <c r="L5" s="1">
-        <v>4.007001</v>
+        <v>4.0070009999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>941.003000</v>
+        <v>941.00300000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.411000</v>
+        <v>-118.411</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>14435.716404</v>
+        <v>14435.716404000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.009921</v>
+        <v>4.0099210000000003</v>
       </c>
       <c r="R5" s="1">
-        <v>947.280000</v>
+        <v>947.28</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.222000</v>
+        <v>-103.22199999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>14446.263680</v>
+        <v>14446.26368</v>
       </c>
       <c r="V5" s="1">
-        <v>4.012851</v>
+        <v>4.0128510000000004</v>
       </c>
       <c r="W5" s="1">
-        <v>953.586000</v>
+        <v>953.58600000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.639200</v>
+        <v>-89.639200000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>14457.050855</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.015847</v>
+        <v>4.0158469999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.599000</v>
+        <v>960.59900000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.335400</v>
+        <v>-80.335400000000007</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>14467.487640</v>
+        <v>14467.487639999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.018747</v>
+        <v>4.0187470000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.531000</v>
+        <v>965.53099999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.037800</v>
+        <v>-80.037800000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>14477.930411</v>
+        <v>14477.930410999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.021647</v>
+        <v>4.0216469999999997</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.468000</v>
+        <v>973.46799999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.014600</v>
+        <v>-88.014600000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>14488.581005</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.024606</v>
+        <v>4.0246060000000003</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.711000</v>
+        <v>982.71100000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.150000</v>
+        <v>-103.15</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>14499.222176</v>
+        <v>14499.222175999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.027562</v>
+        <v>4.0275619999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.119000</v>
+        <v>994.11900000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.967000</v>
+        <v>-124.967</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>14510.334544</v>
+        <v>14510.334543999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.030648</v>
+        <v>4.0306480000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.867000</v>
+        <v>-143.86699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>14520.961330</v>
+        <v>14520.96133</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.033600</v>
+        <v>4.0335999999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.350000</v>
+        <v>1049.3499999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.512000</v>
+        <v>-229.512</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>14532.020131</v>
+        <v>14532.020130999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.036672</v>
+        <v>4.0366720000000003</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.003000</v>
+        <v>-367.00299999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>14542.890949</v>
+        <v>14542.890949000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.039692</v>
+        <v>4.0396919999999996</v>
       </c>
       <c r="BP5" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-579.849000</v>
+        <v>-579.84900000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>14553.660088</v>
+        <v>14553.660088000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.042683</v>
+        <v>4.0426830000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1409.950000</v>
+        <v>1409.95</v>
       </c>
       <c r="BV5" s="1">
-        <v>-807.402000</v>
+        <v>-807.40200000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>14564.398968</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.045666</v>
+        <v>4.0456659999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1574.050000</v>
+        <v>1574.05</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1045.170000</v>
+        <v>-1045.17</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>14575.698860</v>
+        <v>14575.69886</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.048805</v>
+        <v>4.0488049999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1989.660000</v>
+        <v>1989.66</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1600.430000</v>
+        <v>-1600.43</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>14404.684034</v>
       </c>
       <c r="B6" s="1">
-        <v>4.001301</v>
+        <v>4.0013009999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>902.987000</v>
+        <v>902.98699999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.595000</v>
+        <v>-195.595</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>14415.096719</v>
+        <v>14415.096718999999</v>
       </c>
       <c r="G6" s="1">
         <v>4.004194</v>
       </c>
       <c r="H6" s="1">
-        <v>919.538000</v>
+        <v>919.53800000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.390000</v>
+        <v>-165.39</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>14425.551888</v>
@@ -1539,964 +1955,964 @@
         <v>4.007098</v>
       </c>
       <c r="M6" s="1">
-        <v>941.030000</v>
+        <v>941.03</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.474000</v>
+        <v>-118.474</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>14436.064595</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.010018</v>
+        <v>4.0100179999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>947.286000</v>
+        <v>947.28599999999994</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.176000</v>
+        <v>-103.176</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>14446.606564</v>
       </c>
       <c r="V6" s="1">
-        <v>4.012946</v>
+        <v>4.0129460000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>953.582000</v>
+        <v>953.58199999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.625200</v>
+        <v>-89.625200000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>14457.710502</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.016031</v>
+        <v>4.0160309999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.583000</v>
+        <v>960.58299999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.295900</v>
+        <v>-80.295900000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>14467.861805</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.018851</v>
+        <v>4.0188509999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.477000</v>
+        <v>965.47699999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.004700</v>
+        <v>-80.0047</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>14478.314847</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.021754</v>
+        <v>4.0217539999999996</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.475000</v>
+        <v>973.47500000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.977500</v>
+        <v>-87.977500000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>14488.942092</v>
+        <v>14488.942091999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.024706</v>
+        <v>4.0247060000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.677000</v>
+        <v>982.67700000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.133000</v>
+        <v>-103.133</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>14499.587230</v>
+        <v>14499.587229999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.027663</v>
+        <v>4.0276630000000004</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.135000</v>
+        <v>994.13499999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.950000</v>
+        <v>-124.95</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>14510.710016</v>
+        <v>14510.710016000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.030753</v>
+        <v>4.0307529999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.870000</v>
+        <v>-143.87</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>14521.387889</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.033719</v>
+        <v>4.0337189999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.340000</v>
+        <v>1049.3399999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.511000</v>
+        <v>-229.511</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>14532.351954</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.036764</v>
+        <v>4.0367639999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.200000</v>
+        <v>1129.2</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.014000</v>
+        <v>-367.01400000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>14543.287252</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.039802</v>
+        <v>4.0398019999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-579.855000</v>
+        <v>-579.85500000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>14554.075238</v>
+        <v>14554.075237999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.042799</v>
+        <v>4.0427989999999996</v>
       </c>
       <c r="BU6" s="1">
-        <v>1409.980000</v>
+        <v>1409.98</v>
       </c>
       <c r="BV6" s="1">
-        <v>-807.285000</v>
+        <v>-807.28499999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>14564.841400</v>
+        <v>14564.841399999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.045789</v>
+        <v>4.0457890000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1574.220000</v>
+        <v>1574.22</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1045.050000</v>
+        <v>-1045.05</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>14576.239497</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.048955</v>
+        <v>4.0489550000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>1989.340000</v>
+        <v>1989.34</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1598.340000</v>
+        <v>-1598.34</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>14405.027964</v>
+        <v>14405.027964000001</v>
       </c>
       <c r="B7" s="1">
-        <v>4.001397</v>
+        <v>4.0013969999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>902.744000</v>
+        <v>902.74400000000003</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.532000</v>
+        <v>-195.53200000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>14415.440941</v>
+        <v>14415.440941000001</v>
       </c>
       <c r="G7" s="1">
         <v>4.004289</v>
       </c>
       <c r="H7" s="1">
-        <v>919.658000</v>
+        <v>919.65800000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.688000</v>
+        <v>-165.68799999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>14425.897103</v>
+        <v>14425.897102999999</v>
       </c>
       <c r="L7" s="1">
-        <v>4.007194</v>
+        <v>4.0071940000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>941.047000</v>
+        <v>941.04700000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.424000</v>
+        <v>-118.42400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>14436.722321</v>
+        <v>14436.722320999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.010201</v>
+        <v>4.0102010000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>947.343000</v>
+        <v>947.34299999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.200000</v>
+        <v>-103.2</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>14447.270211</v>
+        <v>14447.270210999999</v>
       </c>
       <c r="V7" s="1">
-        <v>4.013131</v>
+        <v>4.0131309999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>953.573000</v>
+        <v>953.57299999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.598300</v>
+        <v>-89.598299999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>14458.097877</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.016138</v>
+        <v>4.0161379999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.591000</v>
+        <v>960.59100000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.319000</v>
+        <v>-80.319000000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>14468.203367</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.018945</v>
+        <v>4.0189450000000004</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.468000</v>
+        <v>965.46799999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.017300</v>
+        <v>-80.017300000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>14478.660789</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.021850</v>
+        <v>4.0218499999999997</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.448000</v>
+        <v>973.44799999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.004600</v>
+        <v>-88.004599999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>14489.301723</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.024806</v>
+        <v>4.0248059999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.711000</v>
+        <v>982.71100000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.167000</v>
+        <v>-103.167</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>14500.023213</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.027784</v>
+        <v>4.0277839999999996</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.108000</v>
+        <v>994.10799999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.952000</v>
+        <v>-124.952</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>14511.134096</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.030871</v>
+        <v>4.0308710000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.780000</v>
+        <v>1003.78</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.854000</v>
+        <v>-143.85400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>14521.687474</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.033802</v>
+        <v>4.0338019999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.350000</v>
+        <v>1049.3499999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.521000</v>
+        <v>-229.52099999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>14532.750247</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.036875</v>
+        <v>4.0368750000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.200000</v>
+        <v>1129.2</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.021000</v>
+        <v>-367.02100000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>14543.710868</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.039920</v>
+        <v>4.0399200000000004</v>
       </c>
       <c r="BP7" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.848000</v>
+        <v>-579.84799999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>14554.514197</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.042921</v>
+        <v>4.0429209999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1410.090000</v>
+        <v>1410.09</v>
       </c>
       <c r="BV7" s="1">
-        <v>-807.360000</v>
+        <v>-807.36</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>14565.272460</v>
+        <v>14565.27246</v>
       </c>
       <c r="BY7" s="1">
         <v>4.045909</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1574.180000</v>
+        <v>1574.18</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1045.230000</v>
+        <v>-1045.23</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>14576.778120</v>
+        <v>14576.778120000001</v>
       </c>
       <c r="CD7" s="1">
         <v>4.049105</v>
       </c>
       <c r="CE7" s="1">
-        <v>1988.690000</v>
+        <v>1988.69</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1600.010000</v>
+        <v>-1600.01</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>14405.363757</v>
+        <v>14405.363756999999</v>
       </c>
       <c r="B8" s="1">
-        <v>4.001490</v>
+        <v>4.0014900000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>902.933000</v>
+        <v>902.93299999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.681000</v>
+        <v>-195.68100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>14416.095196</v>
       </c>
       <c r="G8" s="1">
-        <v>4.004471</v>
+        <v>4.0044709999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>919.546000</v>
+        <v>919.54600000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.719000</v>
+        <v>-165.71899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>14426.536980</v>
+        <v>14426.536980000001</v>
       </c>
       <c r="L8" s="1">
         <v>4.007371</v>
       </c>
       <c r="M8" s="1">
-        <v>940.956000</v>
+        <v>940.95600000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.448000</v>
+        <v>-118.44799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>14437.108704</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.010308</v>
+        <v>4.0103080000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>947.338000</v>
+        <v>947.33799999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.224000</v>
+        <v>-103.224</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>14447.641755</v>
+        <v>14447.641755000001</v>
       </c>
       <c r="V8" s="1">
-        <v>4.013234</v>
+        <v>4.0132339999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>953.519000</v>
+        <v>953.51900000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.550800</v>
+        <v>-89.550799999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>14458.443092</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.016234</v>
+        <v>4.0162339999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.730000</v>
+        <v>960.73</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.273600</v>
+        <v>-80.273600000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>14468.549080</v>
+        <v>14468.549080000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.019041</v>
+        <v>4.0190409999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.548000</v>
+        <v>965.548</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.029300</v>
+        <v>-80.029300000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>14479.008217</v>
+        <v>14479.008217000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.021947</v>
+        <v>4.0219469999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.467000</v>
+        <v>973.46699999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.998300</v>
+        <v>-87.9983</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>14489.727260</v>
+        <v>14489.72726</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.024924</v>
+        <v>4.0249240000000004</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.690000</v>
+        <v>982.69</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.143000</v>
+        <v>-103.143</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>14500.316877</v>
+        <v>14500.316876999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.027866</v>
+        <v>4.0278660000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.100000</v>
+        <v>994.1</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.969000</v>
+        <v>-124.96899999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>14511.429743</v>
+        <v>14511.429743000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.030953</v>
+        <v>4.0309530000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.800000</v>
+        <v>1003.8</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.872000</v>
+        <v>-143.87200000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>14522.046112</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.033902</v>
+        <v>4.0339020000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.350000</v>
+        <v>1049.3499999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.523000</v>
+        <v>-229.523</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>14533.126706</v>
+        <v>14533.126705999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.036980</v>
+        <v>4.0369799999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.190000</v>
+        <v>1129.19</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.019000</v>
+        <v>-367.01900000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>14544.119076</v>
+        <v>14544.119076000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.040033</v>
+        <v>4.0400330000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1261.410000</v>
+        <v>1261.4100000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.888000</v>
+        <v>-579.88800000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>14554.941253</v>
+        <v>14554.941253000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.043039</v>
+        <v>4.0430390000000003</v>
       </c>
       <c r="BU8" s="1">
-        <v>1410.090000</v>
+        <v>1410.09</v>
       </c>
       <c r="BV8" s="1">
-        <v>-807.294000</v>
+        <v>-807.29399999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>14565.694551</v>
+        <v>14565.694551000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.046026</v>
+        <v>4.0460260000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1574.170000</v>
+        <v>1574.17</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1045.200000</v>
+        <v>-1045.2</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>14577.319785</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.049255</v>
+        <v>4.0492549999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>1990.230000</v>
+        <v>1990.23</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1599.550000</v>
+        <v>-1599.55</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>14406.024890</v>
+        <v>14406.024890000001</v>
       </c>
       <c r="B9" s="1">
-        <v>4.001674</v>
+        <v>4.0016740000000004</v>
       </c>
       <c r="C9" s="1">
-        <v>902.846000</v>
+        <v>902.846</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.453000</v>
+        <v>-195.453</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>14416.476588</v>
       </c>
       <c r="G9" s="1">
-        <v>4.004577</v>
+        <v>4.0045770000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>919.322000</v>
+        <v>919.322</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.374000</v>
+        <v>-165.374</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>14426.929310</v>
+        <v>14426.92931</v>
       </c>
       <c r="L9" s="1">
-        <v>4.007480</v>
+        <v>4.0074800000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>941.147000</v>
+        <v>941.14700000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.520000</v>
+        <v>-118.52</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>14437.456370</v>
+        <v>14437.45637</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.010405</v>
+        <v>4.0104050000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>947.312000</v>
+        <v>947.31200000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.233000</v>
+        <v>-103.233</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>14447.978498</v>
       </c>
       <c r="V9" s="1">
-        <v>4.013327</v>
+        <v>4.0133270000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>953.553000</v>
+        <v>953.553</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.521800</v>
+        <v>-89.521799999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>14458.793269</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.016331</v>
+        <v>4.0163310000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.649000</v>
+        <v>960.649</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.248800</v>
+        <v>-80.248800000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>14468.976632</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.019160</v>
+        <v>4.0191600000000003</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.535000</v>
+        <v>965.53499999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.939400</v>
+        <v>-79.939400000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>14479.424361</v>
+        <v>14479.424360999999</v>
       </c>
       <c r="AK9" s="1">
         <v>4.022062</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.446000</v>
+        <v>973.44600000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.000800</v>
+        <v>-88.000799999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>14490.016923</v>
+        <v>14490.016922999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.025005</v>
+        <v>4.0250050000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.694000</v>
+        <v>982.69399999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.150000</v>
+        <v>-103.15</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>14500.679452</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.027967</v>
+        <v>4.0279670000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.134000</v>
+        <v>994.13400000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.958000</v>
+        <v>-124.958</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>14511.788318</v>
+        <v>14511.788318000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.031052</v>
+        <v>4.0310519999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.845000</v>
+        <v>-143.845</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>14522.407675</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.034002</v>
+        <v>4.0340020000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.523000</v>
+        <v>-229.523</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>14533.876690</v>
+        <v>14533.876689999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.037188</v>
+        <v>4.0371880000000004</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.011000</v>
+        <v>-367.01100000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>14544.535684</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.040149</v>
+        <v>4.0401490000000004</v>
       </c>
       <c r="BP9" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-579.864000</v>
+        <v>-579.86400000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>14555.351478</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.043153</v>
+        <v>4.0431530000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1410.150000</v>
+        <v>1410.15</v>
       </c>
       <c r="BV9" s="1">
-        <v>-807.185000</v>
+        <v>-807.18499999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>14566.116646</v>
@@ -2505,332 +2921,332 @@
         <v>4.046144</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1574.360000</v>
+        <v>1574.36</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1045.160000</v>
+        <v>-1045.1600000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>14577.860423</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.049406</v>
+        <v>4.0494060000000003</v>
       </c>
       <c r="CE9" s="1">
-        <v>1988.890000</v>
+        <v>1988.89</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1598.560000</v>
+        <v>-1598.56</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>14406.391929</v>
+        <v>14406.391928999999</v>
       </c>
       <c r="B10" s="1">
-        <v>4.001776</v>
+        <v>4.0017760000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>902.746000</v>
+        <v>902.74599999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.638000</v>
+        <v>-195.63800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>14416.829776</v>
       </c>
       <c r="G10" s="1">
-        <v>4.004675</v>
+        <v>4.0046749999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>919.618000</v>
+        <v>919.61800000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.439000</v>
+        <v>-165.43899999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>14427.275487</v>
+        <v>14427.275487000001</v>
       </c>
       <c r="L10" s="1">
-        <v>4.007577</v>
+        <v>4.0075770000000004</v>
       </c>
       <c r="M10" s="1">
-        <v>940.871000</v>
+        <v>940.87099999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.390000</v>
+        <v>-118.39</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>14437.805552</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.010502</v>
+        <v>4.0105019999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>947.292000</v>
+        <v>947.29200000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.227000</v>
+        <v>-103.227</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>14448.585601</v>
+        <v>14448.585601000001</v>
       </c>
       <c r="V10" s="1">
         <v>4.013496</v>
       </c>
       <c r="W10" s="1">
-        <v>953.517000</v>
+        <v>953.51700000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.620700</v>
+        <v>-89.620699999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>14459.216851</v>
+        <v>14459.216850999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.016449</v>
+        <v>4.0164489999999997</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.699000</v>
+        <v>960.69899999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.278100</v>
+        <v>-80.278099999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>14469.256870</v>
+        <v>14469.256869999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.019238</v>
+        <v>4.0192379999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.479000</v>
+        <v>965.47900000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.996500</v>
+        <v>-79.996499999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>14479.710844</v>
+        <v>14479.710843999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.022142</v>
+        <v>4.0221419999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.459000</v>
+        <v>973.45899999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.002000</v>
+        <v>-88.001999999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>14490.386972</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.025107</v>
+        <v>4.0251070000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.675000</v>
+        <v>982.67499999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.141000</v>
+        <v>-103.14100000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>14501.045964</v>
+        <v>14501.045964000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.028068</v>
+        <v>4.0280680000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.142000</v>
+        <v>994.14200000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.942000</v>
+        <v>-124.94199999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>14512.147918</v>
+        <v>14512.147918000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.031152</v>
+        <v>4.0311519999999996</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.856000</v>
+        <v>-143.85599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>14523.130335</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.034203</v>
+        <v>4.0342029999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.522000</v>
+        <v>-229.52199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>14534.253120</v>
+        <v>14534.253119999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>4.037293</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.014000</v>
+        <v>-367.01400000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>14544.926530</v>
+        <v>14544.926530000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.040257</v>
+        <v>4.0402570000000004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-579.882000</v>
+        <v>-579.88199999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>14555.782964</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.043273</v>
+        <v>4.0432730000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1410.230000</v>
+        <v>1410.23</v>
       </c>
       <c r="BV10" s="1">
-        <v>-807.141000</v>
+        <v>-807.14099999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>14566.847253</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.046346</v>
+        <v>4.0463459999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1574.330000</v>
+        <v>1574.33</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1045.040000</v>
+        <v>-1045.04</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>14578.709574</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.049642</v>
+        <v>4.0496420000000004</v>
       </c>
       <c r="CE10" s="1">
-        <v>1990.400000</v>
+        <v>1990.4</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1599.420000</v>
+        <v>-1599.42</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>14406.736153</v>
       </c>
       <c r="B11" s="1">
-        <v>4.001871</v>
+        <v>4.0018710000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>902.719000</v>
+        <v>902.71900000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.689000</v>
+        <v>-195.68899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>14417.171518</v>
+        <v>14417.171517999999</v>
       </c>
       <c r="G11" s="1">
-        <v>4.004770</v>
+        <v>4.0047699999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>919.713000</v>
+        <v>919.71299999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.610000</v>
+        <v>-165.61</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>14427.623678</v>
       </c>
       <c r="L11" s="1">
-        <v>4.007673</v>
+        <v>4.0076729999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>940.979000</v>
+        <v>940.97900000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.451000</v>
+        <v>-118.45099999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>14438.225203</v>
@@ -2839,360 +3255,360 @@
         <v>4.010618</v>
       </c>
       <c r="R11" s="1">
-        <v>947.304000</v>
+        <v>947.30399999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.205000</v>
+        <v>-103.205</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>14449.008231</v>
       </c>
       <c r="V11" s="1">
-        <v>4.013613</v>
+        <v>4.0136130000000003</v>
       </c>
       <c r="W11" s="1">
-        <v>953.537000</v>
+        <v>953.53700000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.564400</v>
+        <v>-89.564400000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>14459.493123</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.016526</v>
+        <v>4.0165259999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.543000</v>
+        <v>960.54300000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.189200</v>
+        <v>-80.1892</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>14469.601590</v>
+        <v>14469.60159</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.019334</v>
+        <v>4.0193339999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.556000</v>
+        <v>965.55600000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.005300</v>
+        <v>-80.005300000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>14480.059736</v>
+        <v>14480.059735999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.022239</v>
+        <v>4.0222389999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.474000</v>
+        <v>973.47400000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.996100</v>
+        <v>-87.996099999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>14490.746538</v>
+        <v>14490.746537999999</v>
       </c>
       <c r="AP11" s="1">
         <v>4.025207</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.689000</v>
+        <v>982.68899999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.150000</v>
+        <v>-103.15</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>14501.773099</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.028270</v>
+        <v>4.02827</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.135000</v>
+        <v>994.13499999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.949000</v>
+        <v>-124.949</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>14512.866621</v>
+        <v>14512.866620999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>4.031352</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.800000</v>
+        <v>1003.8</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.883000</v>
+        <v>-143.88300000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>14523.490200</v>
+        <v>14523.4902</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.034303</v>
+        <v>4.0343030000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.350000</v>
+        <v>1049.3499999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.533000</v>
+        <v>-229.53299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>14534.627116</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.037396</v>
+        <v>4.0373960000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.180000</v>
+        <v>1129.18</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.010000</v>
+        <v>-367.01</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>14545.345185</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.040374</v>
+        <v>4.0403739999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1261.410000</v>
+        <v>1261.4100000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-579.881000</v>
+        <v>-579.88099999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>14556.524483</v>
+        <v>14556.524482999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.043479</v>
+        <v>4.0434789999999996</v>
       </c>
       <c r="BU11" s="1">
-        <v>1410.350000</v>
+        <v>1410.35</v>
       </c>
       <c r="BV11" s="1">
-        <v>-807.236000</v>
+        <v>-807.23599999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>14566.957882</v>
+        <v>14566.957882000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.046377</v>
+        <v>4.0463769999999997</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1574.230000</v>
+        <v>1574.23</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1045.110000</v>
+        <v>-1045.1099999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>14578.939194</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.049705</v>
+        <v>4.0497050000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>1990.440000</v>
+        <v>1990.44</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1599.650000</v>
+        <v>-1599.65</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>14407.077898</v>
       </c>
       <c r="B12" s="1">
-        <v>4.001966</v>
+        <v>4.0019660000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>902.832000</v>
+        <v>902.83199999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.704000</v>
+        <v>-195.70400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>14417.596058</v>
+        <v>14417.596057999999</v>
       </c>
       <c r="G12" s="1">
-        <v>4.004888</v>
+        <v>4.0048880000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>919.652000</v>
+        <v>919.65200000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.596000</v>
+        <v>-165.596</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>14428.048260</v>
+        <v>14428.04826</v>
       </c>
       <c r="L12" s="1">
-        <v>4.007791</v>
+        <v>4.0077910000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>941.097000</v>
+        <v>941.09699999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.362000</v>
+        <v>-118.36199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>14438.502959</v>
+        <v>14438.502958999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.010695</v>
+        <v>4.0106950000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>947.311000</v>
+        <v>947.31100000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.182000</v>
+        <v>-103.182</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>14449.351920</v>
+        <v>14449.351919999999</v>
       </c>
       <c r="V12" s="1">
-        <v>4.013709</v>
+        <v>4.0137090000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>953.558000</v>
+        <v>953.55799999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.559800</v>
+        <v>-89.559799999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>14459.851234</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.016625</v>
+        <v>4.0166250000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.565000</v>
+        <v>960.56500000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.314900</v>
+        <v>-80.314899999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>14469.943861</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.019429</v>
+        <v>4.0194289999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.565000</v>
+        <v>965.56500000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.997300</v>
+        <v>-79.997299999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>14480.413383</v>
+        <v>14480.413382999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.022337</v>
+        <v>4.0223370000000003</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.466000</v>
+        <v>973.46600000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.006300</v>
+        <v>-88.006299999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>14491.469706</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.025408</v>
+        <v>4.0254079999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.701000</v>
+        <v>982.70100000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.144000</v>
+        <v>-103.14400000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>14502.157499</v>
+        <v>14502.157499000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.028377</v>
+        <v>4.0283769999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.138000</v>
+        <v>994.13800000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.946000</v>
+        <v>-124.946</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>14513.232172</v>
@@ -3201,285 +3617,285 @@
         <v>4.031453</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.800000</v>
+        <v>1003.8</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.869000</v>
+        <v>-143.869</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>14523.852014</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.034403</v>
+        <v>4.0344030000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.350000</v>
+        <v>1049.3499999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.545000</v>
+        <v>-229.54499999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>14535.311584</v>
+        <v>14535.311583999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.037587</v>
+        <v>4.0375870000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.989000</v>
+        <v>-366.98899999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>14546.051953</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.040570</v>
+        <v>4.0405699999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1261.390000</v>
+        <v>1261.3900000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-579.908000</v>
+        <v>-579.90800000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>14556.657411</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.043516</v>
+        <v>4.0435160000000003</v>
       </c>
       <c r="BU12" s="1">
-        <v>1410.360000</v>
+        <v>1410.36</v>
       </c>
       <c r="BV12" s="1">
-        <v>-807.266000</v>
+        <v>-807.26599999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>14567.396293</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.046499</v>
+        <v>4.0464989999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1574.230000</v>
+        <v>1574.23</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1045.180000</v>
+        <v>-1045.18</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>14579.458500</v>
+        <v>14579.458500000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.049850</v>
+        <v>4.0498500000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1989.430000</v>
+        <v>1989.43</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1598.480000</v>
+        <v>-1598.48</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>14407.496025</v>
       </c>
       <c r="B13" s="1">
-        <v>4.002082</v>
+        <v>4.0020819999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>902.716000</v>
+        <v>902.71600000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.675000</v>
+        <v>-195.67500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>14417.874347</v>
+        <v>14417.874347000001</v>
       </c>
       <c r="G13" s="1">
-        <v>4.004965</v>
+        <v>4.0049650000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>919.531000</v>
+        <v>919.53099999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.835000</v>
+        <v>-165.83500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>14428.321084</v>
+        <v>14428.321083999999</v>
       </c>
       <c r="L13" s="1">
-        <v>4.007867</v>
+        <v>4.0078670000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>941.040000</v>
+        <v>941.04</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.367000</v>
+        <v>-118.367</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>14438.851614</v>
+        <v>14438.851613999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.010792</v>
+        <v>4.0107920000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>947.344000</v>
+        <v>947.34400000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.170000</v>
+        <v>-103.17</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>14449.696145</v>
       </c>
       <c r="V13" s="1">
-        <v>4.013804</v>
+        <v>4.0138040000000004</v>
       </c>
       <c r="W13" s="1">
-        <v>953.575000</v>
+        <v>953.57500000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.634700</v>
+        <v>-89.634699999999995</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>14460.193474</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.016720</v>
+        <v>4.0167200000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.685000</v>
+        <v>960.68499999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.276100</v>
+        <v>-80.2761</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>14470.632285</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.019620</v>
+        <v>4.0196199999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.450000</v>
+        <v>965.45</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.052800</v>
+        <v>-80.052800000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>14481.138040</v>
+        <v>14481.13804</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.022538</v>
+        <v>4.0225379999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.469000</v>
+        <v>973.46900000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.002000</v>
+        <v>-88.001999999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>14491.846664</v>
+        <v>14491.846664000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.025513</v>
+        <v>4.0255130000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.691000</v>
+        <v>982.69100000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.157000</v>
+        <v>-103.157</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>14502.534954</v>
+        <v>14502.534954000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.028482</v>
+        <v>4.0284820000000003</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.137000</v>
+        <v>994.13699999999994</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.940000</v>
+        <v>-124.94</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>14513.582347</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.031551</v>
+        <v>4.0315510000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.869000</v>
+        <v>-143.869</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>14524.524599</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.034590</v>
+        <v>4.0345899999999997</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.538000</v>
+        <v>-229.53800000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>14535.422687</v>
@@ -3488,180 +3904,180 @@
         <v>4.037617</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.190000</v>
+        <v>1129.19</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.005000</v>
+        <v>-367.005</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>14546.172977</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.040604</v>
+        <v>4.0406040000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-579.849000</v>
+        <v>-579.84900000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>14557.069090</v>
+        <v>14557.069090000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.043630</v>
+        <v>4.0436300000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="BV13" s="1">
-        <v>-807.216000</v>
+        <v>-807.21600000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>14567.852116</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.046626</v>
+        <v>4.0466259999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1574.080000</v>
+        <v>1574.08</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1045.140000</v>
+        <v>-1045.1400000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>14579.974836</v>
+        <v>14579.974835999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.049993</v>
+        <v>4.0499929999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>1988.360000</v>
+        <v>1988.36</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1599.720000</v>
+        <v>-1599.72</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>14407.774279</v>
+        <v>14407.774278999999</v>
       </c>
       <c r="B14" s="1">
-        <v>4.002160</v>
+        <v>4.0021599999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>902.629000</v>
+        <v>902.62900000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.502000</v>
+        <v>-195.50200000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>14418.220026</v>
+        <v>14418.220026000001</v>
       </c>
       <c r="G14" s="1">
-        <v>4.005061</v>
+        <v>4.0050610000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>919.419000</v>
+        <v>919.41899999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.791000</v>
+        <v>-165.791</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>14428.670267</v>
       </c>
       <c r="L14" s="1">
-        <v>4.007964</v>
+        <v>4.0079640000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>940.946000</v>
+        <v>940.94600000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.376000</v>
+        <v>-118.376</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>14439.199310</v>
+        <v>14439.19931</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.010889</v>
+        <v>4.0108889999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>947.331000</v>
+        <v>947.33100000000002</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.233000</v>
+        <v>-103.233</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>14450.384127</v>
+        <v>14450.384126999999</v>
       </c>
       <c r="V14" s="1">
-        <v>4.013996</v>
+        <v>4.0139959999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>953.541000</v>
+        <v>953.54100000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.607100</v>
+        <v>-89.607100000000003</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>14460.887906</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.016913</v>
+        <v>4.0169129999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.645000</v>
+        <v>960.64499999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.264900</v>
+        <v>-80.264899999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>14470.971572</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.019714</v>
+        <v>4.0197139999999996</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.499000</v>
+        <v>965.49900000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.018800</v>
+        <v>-80.018799999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>14481.456471</v>
@@ -3670,542 +4086,542 @@
         <v>4.022627</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.454000</v>
+        <v>973.45399999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.981000</v>
+        <v>-87.980999999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>14492.209242</v>
+        <v>14492.209242000001</v>
       </c>
       <c r="AP14" s="1">
         <v>4.025614</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.680000</v>
+        <v>982.68</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.148000</v>
+        <v>-103.148</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>14503.187689</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.028663</v>
+        <v>4.0286629999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.136000</v>
+        <v>994.13599999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.935000</v>
+        <v>-124.935</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>14514.087283</v>
+        <v>14514.087283000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.031691</v>
+        <v>4.0316910000000004</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.861000</v>
+        <v>-143.86099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>14524.970492</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.034714</v>
+        <v>4.0347140000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.350000</v>
+        <v>1049.3499999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.511000</v>
+        <v>-229.511</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>14535.785758</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.037718</v>
+        <v>4.0377179999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.180000</v>
+        <v>1129.18</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.018000</v>
+        <v>-367.01799999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>14546.585649</v>
+        <v>14546.585649000001</v>
       </c>
       <c r="BO14" s="1">
         <v>4.040718</v>
       </c>
       <c r="BP14" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-579.862000</v>
+        <v>-579.86199999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>14557.494162</v>
+        <v>14557.494162000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.043748</v>
+        <v>4.0437479999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1410.480000</v>
+        <v>1410.48</v>
       </c>
       <c r="BV14" s="1">
-        <v>-807.304000</v>
+        <v>-807.30399999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>14568.300995</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.046750</v>
+        <v>4.0467500000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1574.100000</v>
+        <v>1574.1</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1045.180000</v>
+        <v>-1045.18</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>14580.492196</v>
+        <v>14580.492195999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.050137</v>
+        <v>4.0501370000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>1989.840000</v>
+        <v>1989.84</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1600.440000</v>
+        <v>-1600.44</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>14408.115561</v>
+        <v>14408.115561000001</v>
       </c>
       <c r="B15" s="1">
-        <v>4.002254</v>
+        <v>4.0022539999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>902.791000</v>
+        <v>902.79100000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.665000</v>
+        <v>-195.66499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>14418.566241</v>
       </c>
       <c r="G15" s="1">
-        <v>4.005157</v>
+        <v>4.0051569999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>919.393000</v>
+        <v>919.39300000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.192000</v>
+        <v>-165.19200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>14429.019452</v>
       </c>
       <c r="L15" s="1">
-        <v>4.008061</v>
+        <v>4.0080609999999997</v>
       </c>
       <c r="M15" s="1">
-        <v>941.037000</v>
+        <v>941.03700000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.510000</v>
+        <v>-118.51</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>14439.899661</v>
+        <v>14439.899660999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.011083</v>
+        <v>4.0110830000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>947.282000</v>
+        <v>947.28200000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.217000</v>
+        <v>-103.217</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>14450.727824</v>
       </c>
       <c r="V15" s="1">
-        <v>4.014091</v>
+        <v>4.0140909999999996</v>
       </c>
       <c r="W15" s="1">
-        <v>953.513000</v>
+        <v>953.51300000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.582200</v>
+        <v>-89.5822</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>14461.235569</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.017010</v>
+        <v>4.01701</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.675000</v>
+        <v>960.67499999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.240400</v>
+        <v>-80.240399999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>14471.318276</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.019811</v>
+        <v>4.0198109999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.464000</v>
+        <v>965.46400000000006</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.967800</v>
+        <v>-79.967799999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>14482.107221</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.022808</v>
+        <v>4.0228080000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.462000</v>
+        <v>973.46199999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.984600</v>
+        <v>-87.9846</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>14492.883800</v>
+        <v>14492.8838</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.025801</v>
+        <v>4.0258010000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.692000</v>
+        <v>982.69200000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.176000</v>
+        <v>-103.176</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>14503.626153</v>
+        <v>14503.626152999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.028785</v>
+        <v>4.0287850000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.142000</v>
+        <v>994.14200000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.935000</v>
+        <v>-124.935</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>14514.300058</v>
+        <v>14514.300058000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.031750</v>
+        <v>4.0317499999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.875000</v>
+        <v>-143.875</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>14525.332572</v>
+        <v>14525.332571999999</v>
       </c>
       <c r="BE15" s="1">
         <v>4.034815</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.512000</v>
+        <v>-229.512</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>14536.163246</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.037823</v>
+        <v>4.0378230000000004</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.190000</v>
+        <v>1129.19</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.010000</v>
+        <v>-367.01</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>14546.983935</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.040829</v>
+        <v>4.0408289999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-579.873000</v>
+        <v>-579.87300000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>14557.913283</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.043865</v>
+        <v>4.0438650000000003</v>
       </c>
       <c r="BU15" s="1">
-        <v>1410.560000</v>
+        <v>1410.56</v>
       </c>
       <c r="BV15" s="1">
-        <v>-807.310000</v>
+        <v>-807.31</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>14568.757346</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.046877</v>
+        <v>4.0468770000000003</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1574.080000</v>
+        <v>1574.08</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1045.070000</v>
+        <v>-1045.07</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>14581.014948</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.050282</v>
+        <v>4.0502820000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1989.510000</v>
+        <v>1989.51</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1600.510000</v>
+        <v>-1600.51</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>14408.459751</v>
       </c>
       <c r="B16" s="1">
-        <v>4.002350</v>
+        <v>4.0023499999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>902.843000</v>
+        <v>902.84299999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.698000</v>
+        <v>-195.69800000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>14419.259640</v>
+        <v>14419.25964</v>
       </c>
       <c r="G16" s="1">
-        <v>4.005350</v>
+        <v>4.00535</v>
       </c>
       <c r="H16" s="1">
-        <v>919.500000</v>
+        <v>919.5</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.560000</v>
+        <v>-165.56</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>14429.709882</v>
+        <v>14429.709881999999</v>
       </c>
       <c r="L16" s="1">
-        <v>4.008253</v>
+        <v>4.0082529999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>941.139000</v>
+        <v>941.13900000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.332000</v>
+        <v>-118.33199999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>14440.246861</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.011180</v>
+        <v>4.0111800000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>947.285000</v>
+        <v>947.28499999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.190000</v>
+        <v>-103.19</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>14451.075024</v>
       </c>
       <c r="V16" s="1">
-        <v>4.014188</v>
+        <v>4.0141879999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>953.544000</v>
+        <v>953.54399999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.610700</v>
+        <v>-89.610699999999994</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>14461.586273</v>
+        <v>14461.586273000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.017107</v>
+        <v>4.0171070000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.599000</v>
+        <v>960.59900000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.298400</v>
+        <v>-80.298400000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>14471.977427</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.019994</v>
+        <v>4.0199939999999996</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.534000</v>
+        <v>965.53399999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.967900</v>
+        <v>-79.9679</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>14482.502532</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.022917</v>
+        <v>4.0229169999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.458000</v>
+        <v>973.45799999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.003300</v>
+        <v>-88.003299999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>14493.288536</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.025913</v>
+        <v>4.0259130000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.697000</v>
+        <v>982.697</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.154000</v>
+        <v>-103.154</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>14503.991209</v>
@@ -4214,649 +4630,649 @@
         <v>4.028886</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.114000</v>
+        <v>994.11400000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.941000</v>
+        <v>-124.941</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>14514.661642</v>
+        <v>14514.661641999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.031850</v>
+        <v>4.0318500000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.800000</v>
+        <v>1003.8</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.855000</v>
+        <v>-143.85499999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>14525.693659</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.034915</v>
+        <v>4.0349149999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.340000</v>
+        <v>1049.3399999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.522000</v>
+        <v>-229.52199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>14536.585805</v>
+        <v>14536.585805000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>4.037941</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.180000</v>
+        <v>1129.18</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.000000</v>
+        <v>-367</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>14547.805310</v>
+        <v>14547.80531</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.041057</v>
+        <v>4.0410570000000003</v>
       </c>
       <c r="BP16" s="1">
-        <v>1261.380000</v>
+        <v>1261.3800000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-579.880000</v>
+        <v>-579.88</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>14558.324469</v>
+        <v>14558.324468999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.043979</v>
+        <v>4.0439790000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1410.610000</v>
+        <v>1410.61</v>
       </c>
       <c r="BV16" s="1">
-        <v>-807.397000</v>
+        <v>-807.39700000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>14569.204242</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.047001</v>
+        <v>4.0470009999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1574.220000</v>
+        <v>1574.22</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1045.160000</v>
+        <v>-1045.1600000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>14581.564046</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.050434</v>
+        <v>4.0504340000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1988.450000</v>
+        <v>1988.45</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1599.880000</v>
+        <v>-1599.88</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>14409.141749</v>
       </c>
       <c r="B17" s="1">
-        <v>4.002539</v>
+        <v>4.0025389999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>902.623000</v>
+        <v>902.62300000000005</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.608000</v>
+        <v>-195.608</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>14419.602904</v>
+        <v>14419.602903999999</v>
       </c>
       <c r="G17" s="1">
-        <v>4.005445</v>
+        <v>4.0054449999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>919.708000</v>
+        <v>919.70799999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.773000</v>
+        <v>-165.773</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>14430.056060</v>
+        <v>14430.056060000001</v>
       </c>
       <c r="L17" s="1">
-        <v>4.008349</v>
+        <v>4.0083489999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.917000</v>
+        <v>940.91700000000003</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.327000</v>
+        <v>-118.327</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>14440.595052</v>
+        <v>14440.595052000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.011276</v>
+        <v>4.0112759999999996</v>
       </c>
       <c r="R17" s="1">
-        <v>947.295000</v>
+        <v>947.29499999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.154000</v>
+        <v>-103.154</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>14451.731263</v>
       </c>
       <c r="V17" s="1">
-        <v>4.014370</v>
+        <v>4.0143700000000004</v>
       </c>
       <c r="W17" s="1">
-        <v>953.604000</v>
+        <v>953.60400000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.590500</v>
+        <v>-89.590500000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>14462.242447</v>
+        <v>14462.242447000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.017290</v>
+        <v>4.01729</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.648000</v>
+        <v>960.64800000000002</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.270300</v>
+        <v>-80.270300000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>14472.346450</v>
+        <v>14472.346449999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.020096</v>
+        <v>4.0200959999999997</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.560000</v>
+        <v>965.56</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.002600</v>
+        <v>-80.002600000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>14482.850230</v>
+        <v>14482.85023</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.023014</v>
+        <v>4.0230139999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.436000</v>
+        <v>973.43600000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.011000</v>
+        <v>-88.010999999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>14493.671942</v>
+        <v>14493.671942000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.026020</v>
+        <v>4.0260199999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.664000</v>
+        <v>982.66399999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.161000</v>
+        <v>-103.161</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>14504.355800</v>
+        <v>14504.355799999999</v>
       </c>
       <c r="AU17" s="1">
         <v>4.028988</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.132000</v>
+        <v>994.13199999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.943000</v>
+        <v>-124.943</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>14515.084731</v>
+        <v>14515.084731000001</v>
       </c>
       <c r="AZ17" s="1">
         <v>4.031968</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.862000</v>
+        <v>-143.86199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>14526.115259</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.035032</v>
+        <v>4.0350320000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.360000</v>
+        <v>1049.3599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.528000</v>
+        <v>-229.52799999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>14536.939125</v>
+        <v>14536.939125000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.038039</v>
+        <v>4.0380390000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.160000</v>
+        <v>1129.1600000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.020000</v>
+        <v>-367.02</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>14548.219967</v>
+        <v>14548.219967000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.041172</v>
+        <v>4.0411720000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1261.410000</v>
+        <v>1261.4100000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-579.842000</v>
+        <v>-579.84199999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>14558.742593</v>
+        <v>14558.742593000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.044095</v>
+        <v>4.0440950000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>1410.610000</v>
+        <v>1410.61</v>
       </c>
       <c r="BV17" s="1">
-        <v>-807.461000</v>
+        <v>-807.46100000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>14569.662513</v>
+        <v>14569.662512999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.047128</v>
+        <v>4.0471279999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1574.210000</v>
+        <v>1574.21</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1045.200000</v>
+        <v>-1045.2</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>14582.092294</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.050581</v>
+        <v>4.0505810000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1989.760000</v>
+        <v>1989.76</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1600.320000</v>
+        <v>-1600.32</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>14409.487461</v>
+        <v>14409.487461000001</v>
       </c>
       <c r="B18" s="1">
-        <v>4.002635</v>
+        <v>4.0026349999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>902.629000</v>
+        <v>902.62900000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.520000</v>
+        <v>-195.52</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>14419.949445</v>
       </c>
       <c r="G18" s="1">
-        <v>4.005542</v>
+        <v>4.0055420000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>918.958000</v>
+        <v>918.95799999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.441000</v>
+        <v>-165.441</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>14430.402298</v>
+        <v>14430.402298000001</v>
       </c>
       <c r="L18" s="1">
         <v>4.008445</v>
       </c>
       <c r="M18" s="1">
-        <v>940.931000</v>
+        <v>940.93100000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.428000</v>
+        <v>-118.428</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>14441.263164</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.011462</v>
+        <v>4.0114619999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>947.371000</v>
+        <v>947.37099999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.196000</v>
+        <v>-103.196</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>14452.107198</v>
       </c>
       <c r="V18" s="1">
-        <v>4.014474</v>
+        <v>4.0144739999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>953.475000</v>
+        <v>953.47500000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.637700</v>
+        <v>-89.637699999999995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>14462.629327</v>
+        <v>14462.629327000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.017397</v>
+        <v>4.0173969999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.591000</v>
+        <v>960.59100000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.233000</v>
+        <v>-80.233000000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>14472.689223</v>
+        <v>14472.689222999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.020191</v>
+        <v>4.0201909999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.512000</v>
+        <v>965.51199999999994</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.995300</v>
+        <v>-79.9953</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>14483.199412</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.023111</v>
+        <v>4.0231110000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.462000</v>
+        <v>973.46199999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.024700</v>
+        <v>-88.024699999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>14494.032039</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.026120</v>
+        <v>4.0261199999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.685000</v>
+        <v>982.68499999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.149000</v>
+        <v>-103.149</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>14504.773399</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.029104</v>
+        <v>4.0291040000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.139000</v>
+        <v>994.13900000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.946000</v>
+        <v>-124.946</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>14515.376911</v>
+        <v>14515.376910999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.032049</v>
+        <v>4.0320489999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.810000</v>
+        <v>1003.81</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.894000</v>
+        <v>-143.89400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>14526.412858</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.035115</v>
+        <v>4.0351150000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.350000</v>
+        <v>1049.3499999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.516000</v>
+        <v>-229.51599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>14537.314428</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.038143</v>
+        <v>4.0381429999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.024000</v>
+        <v>-367.024</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>14548.614287</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.041282</v>
+        <v>4.0412819999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1261.390000</v>
+        <v>1261.3900000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-579.911000</v>
+        <v>-579.91099999999994</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>14559.157249</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.044210</v>
+        <v>4.0442099999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>1410.630000</v>
+        <v>1410.63</v>
       </c>
       <c r="BV18" s="1">
-        <v>-807.555000</v>
+        <v>-807.55499999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>14570.110402</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.047253</v>
+        <v>4.0472530000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1574.120000</v>
+        <v>1574.12</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1045.070000</v>
+        <v>-1045.07</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>14582.610080</v>
+        <v>14582.61008</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.050725</v>
+        <v>4.0507249999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1989.990000</v>
+        <v>1989.99</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1598.800000</v>
+        <v>-1598.8</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>14409.836677</v>
+        <v>14409.836676999999</v>
       </c>
       <c r="B19" s="1">
         <v>4.002732</v>
       </c>
       <c r="C19" s="1">
-        <v>902.688000</v>
+        <v>902.68799999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.544000</v>
+        <v>-195.54400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>14420.608263</v>
@@ -4865,148 +5281,148 @@
         <v>4.005725</v>
       </c>
       <c r="H19" s="1">
-        <v>919.379000</v>
+        <v>919.37900000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.434000</v>
+        <v>-165.434</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>14431.069880</v>
+        <v>14431.069879999999</v>
       </c>
       <c r="L19" s="1">
-        <v>4.008631</v>
+        <v>4.0086310000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>941.075000</v>
+        <v>941.07500000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.465000</v>
+        <v>-118.465</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>14441.640123</v>
+        <v>14441.640122999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.011567</v>
+        <v>4.0115670000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>947.314000</v>
+        <v>947.31399999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.213000</v>
+        <v>-103.21299999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>14452.450460</v>
+        <v>14452.45046</v>
       </c>
       <c r="V19" s="1">
-        <v>4.014570</v>
+        <v>4.01457</v>
       </c>
       <c r="W19" s="1">
-        <v>953.517000</v>
+        <v>953.51700000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.544200</v>
+        <v>-89.544200000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>14462.976527</v>
+        <v>14462.976527000001</v>
       </c>
       <c r="AA19" s="1">
         <v>4.017493</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.565000</v>
+        <v>960.56500000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.367000</v>
+        <v>-80.367000000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>14473.034898</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.020287</v>
+        <v>4.0202869999999997</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.525000</v>
+        <v>965.52499999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.008000</v>
+        <v>-80.007999999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>14483.616547</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.023227</v>
+        <v>4.0232270000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.453000</v>
+        <v>973.45299999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.017400</v>
+        <v>-88.017399999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>14494.451687</v>
+        <v>14494.451687000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.026237</v>
+        <v>4.0262370000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.695000</v>
+        <v>982.69500000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.145000</v>
+        <v>-103.145</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>14505.083398</v>
+        <v>14505.083398000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.029190</v>
+        <v>4.0291899999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.113000</v>
+        <v>994.11300000000006</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.943000</v>
+        <v>-124.943</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>14515.737961</v>
+        <v>14515.737961000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.032149</v>
+        <v>4.0321490000000004</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.872000</v>
+        <v>-143.87200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>14526.774975</v>
@@ -5015,300 +5431,300 @@
         <v>4.035215</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.360000</v>
+        <v>1049.3599999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.523000</v>
+        <v>-229.523</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>14537.691916</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.038248</v>
+        <v>4.0382480000000003</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.190000</v>
+        <v>1129.19</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.989000</v>
+        <v>-366.98899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>14549.036380</v>
+        <v>14549.03638</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.041399</v>
+        <v>4.0413990000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-579.875000</v>
+        <v>-579.875</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>14559.580368</v>
+        <v>14559.580368000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.044328</v>
+        <v>4.0443280000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1410.620000</v>
+        <v>1410.62</v>
       </c>
       <c r="BV19" s="1">
-        <v>-807.623000</v>
+        <v>-807.62300000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>14570.567712</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.047380</v>
+        <v>4.0473800000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1574.140000</v>
+        <v>1574.14</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1045.140000</v>
+        <v>-1045.1400000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>14583.128431</v>
+        <v>14583.128430999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.050869</v>
+        <v>4.0508689999999996</v>
       </c>
       <c r="CE19" s="1">
-        <v>1988.520000</v>
+        <v>1988.52</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1598.650000</v>
+        <v>-1598.65</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>14410.476981</v>
       </c>
       <c r="B20" s="1">
-        <v>4.002910</v>
+        <v>4.00291</v>
       </c>
       <c r="C20" s="1">
-        <v>902.844000</v>
+        <v>902.84400000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.573000</v>
+        <v>-195.57300000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>14420.983238</v>
+        <v>14420.983238000001</v>
       </c>
       <c r="G20" s="1">
-        <v>4.005829</v>
+        <v>4.0058290000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>918.978000</v>
+        <v>918.97799999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.502000</v>
+        <v>-165.50200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>14431.439898</v>
+        <v>14431.439898000001</v>
       </c>
       <c r="L20" s="1">
-        <v>4.008733</v>
+        <v>4.0087330000000003</v>
       </c>
       <c r="M20" s="1">
-        <v>941.043000</v>
+        <v>941.04300000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.243000</v>
+        <v>-118.24299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>14441.988842</v>
+        <v>14441.988842000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.011664</v>
+        <v>4.0116639999999997</v>
       </c>
       <c r="R20" s="1">
-        <v>947.291000</v>
+        <v>947.29100000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.228000</v>
+        <v>-103.22799999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>14452.790188</v>
+        <v>14452.790188000001</v>
       </c>
       <c r="V20" s="1">
-        <v>4.014664</v>
+        <v>4.0146639999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>953.567000</v>
+        <v>953.56700000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.624700</v>
+        <v>-89.624700000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>14463.328201</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.017591</v>
+        <v>4.0175910000000004</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.643000</v>
+        <v>960.64300000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.279400</v>
+        <v>-80.279399999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>14473.452529</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.020403</v>
+        <v>4.0204029999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.651000</v>
+        <v>965.65099999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.962300</v>
+        <v>-79.962299999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>14483.894312</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.023304</v>
+        <v>4.0233040000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.456000</v>
+        <v>973.45600000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.985400</v>
+        <v>-87.985399999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>14494.752228</v>
+        <v>14494.752227999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.026320</v>
+        <v>4.0263200000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.675000</v>
+        <v>982.67499999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.154000</v>
+        <v>-103.154</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>14505.451430</v>
+        <v>14505.451429999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.029292</v>
+        <v>4.0292919999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.115000</v>
+        <v>994.11500000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.942000</v>
+        <v>-124.94199999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>14516.095112</v>
+        <v>14516.095112000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.032249</v>
+        <v>4.0322490000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.861000</v>
+        <v>-143.86099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>14527.138538</v>
+        <v>14527.138537999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.035316</v>
+        <v>4.0353159999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.507000</v>
+        <v>-229.50700000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>14538.465180</v>
+        <v>14538.465179999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.038463</v>
+        <v>4.0384630000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.180000</v>
+        <v>1129.18</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.992000</v>
+        <v>-366.99200000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>14549.433678</v>
+        <v>14549.433677999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.041509</v>
+        <v>4.0415089999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-579.881000</v>
+        <v>-579.88099999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>14559.988046</v>
@@ -5317,13 +5733,13 @@
         <v>4.044441</v>
       </c>
       <c r="BU20" s="1">
-        <v>1410.680000</v>
+        <v>1410.68</v>
       </c>
       <c r="BV20" s="1">
-        <v>-807.688000</v>
+        <v>-807.68799999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>14571.016097</v>
@@ -5332,392 +5748,392 @@
         <v>4.047504</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1574.300000</v>
+        <v>1574.3</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1045.100000</v>
+        <v>-1045.0999999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>14583.957742</v>
+        <v>14583.957742000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.051099</v>
+        <v>4.0510989999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1988.680000</v>
+        <v>1988.68</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1600.290000</v>
+        <v>-1600.29</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>14410.850202</v>
       </c>
       <c r="B21" s="1">
-        <v>4.003014</v>
+        <v>4.0030140000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>902.714000</v>
+        <v>902.71400000000006</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.868000</v>
+        <v>-195.86799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>14421.331431</v>
+        <v>14421.331431000001</v>
       </c>
       <c r="G21" s="1">
-        <v>4.005925</v>
+        <v>4.0059250000000004</v>
       </c>
       <c r="H21" s="1">
-        <v>919.273000</v>
+        <v>919.27300000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.473000</v>
+        <v>-165.47300000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>14431.794040</v>
+        <v>14431.794040000001</v>
       </c>
       <c r="L21" s="1">
         <v>4.008832</v>
       </c>
       <c r="M21" s="1">
-        <v>941.063000</v>
+        <v>941.06299999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.566000</v>
+        <v>-118.566</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>14442.335514</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.011760</v>
+        <v>4.0117599999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>947.296000</v>
+        <v>947.29600000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.193000</v>
+        <v>-103.193</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>14453.211291</v>
       </c>
       <c r="V21" s="1">
-        <v>4.014781</v>
+        <v>4.0147810000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>953.518000</v>
+        <v>953.51800000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.633800</v>
+        <v>-89.633799999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>14463.757229</v>
+        <v>14463.757229000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.017710</v>
+        <v>4.0177100000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.637000</v>
+        <v>960.63699999999994</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.354800</v>
+        <v>-80.354799999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>14473.743680</v>
+        <v>14473.74368</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.020484</v>
+        <v>4.0204839999999997</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.500000</v>
+        <v>965.5</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.026300</v>
+        <v>-80.026300000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>14484.245475</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.023402</v>
+        <v>4.0234019999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.453000</v>
+        <v>973.45299999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.004500</v>
+        <v>-88.004499999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>14495.113316</v>
+        <v>14495.113316000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.026420</v>
+        <v>4.0264199999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.682000</v>
+        <v>982.68200000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.146000</v>
+        <v>-103.146</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>14505.815495</v>
+        <v>14505.815495000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.029393</v>
+        <v>4.0293929999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.131000</v>
+        <v>994.13099999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.928000</v>
+        <v>-124.928</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>14516.806839</v>
+        <v>14516.806839000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.032446</v>
+        <v>4.0324460000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.810000</v>
+        <v>1003.81</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.853000</v>
+        <v>-143.85300000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>14527.859193</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.035516</v>
+        <v>4.0355160000000003</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.340000</v>
+        <v>1049.3399999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.539000</v>
+        <v>-229.53899999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>14538.840618</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.038567</v>
+        <v>4.0385669999999996</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.980000</v>
+        <v>-366.98</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>14549.852301</v>
+        <v>14549.852301000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.041626</v>
+        <v>4.0416259999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-579.891000</v>
+        <v>-579.89099999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>14560.404685</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.044557</v>
+        <v>4.0445570000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1410.600000</v>
+        <v>1410.6</v>
       </c>
       <c r="BV21" s="1">
-        <v>-807.702000</v>
+        <v>-807.702</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>14571.756128</v>
+        <v>14571.756128000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.047710</v>
+        <v>4.0477100000000004</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1574.100000</v>
+        <v>1574.1</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1045.060000</v>
+        <v>-1045.06</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>14584.165038</v>
+        <v>14584.165037999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.051157</v>
+        <v>4.0511569999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1990.080000</v>
+        <v>1990.08</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1600.100000</v>
+        <v>-1600.1</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>14411.195219</v>
+        <v>14411.195218999999</v>
       </c>
       <c r="B22" s="1">
-        <v>4.003110</v>
+        <v>4.0031100000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>902.696000</v>
+        <v>902.69600000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.607000</v>
+        <v>-195.607</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>14421.675157</v>
       </c>
       <c r="G22" s="1">
-        <v>4.006021</v>
+        <v>4.0060209999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>919.186000</v>
+        <v>919.18600000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.677000</v>
+        <v>-165.67699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>14432.316823</v>
+        <v>14432.316822999999</v>
       </c>
       <c r="L22" s="1">
-        <v>4.008977</v>
+        <v>4.0089769999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>940.948000</v>
+        <v>940.94799999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.476000</v>
+        <v>-118.476</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>14442.758105</v>
+        <v>14442.758105000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.011877</v>
+        <v>4.0118770000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>947.315000</v>
+        <v>947.31500000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.186000</v>
+        <v>-103.18600000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>14453.487564</v>
+        <v>14453.487563999999</v>
       </c>
       <c r="V22" s="1">
-        <v>4.014858</v>
+        <v>4.0148580000000003</v>
       </c>
       <c r="W22" s="1">
-        <v>953.563000</v>
+        <v>953.56299999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.607400</v>
+        <v>-89.607399999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>14464.032013</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.017787</v>
+        <v>4.0177870000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.557000</v>
+        <v>960.55700000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.293900</v>
+        <v>-80.293899999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>14474.086912</v>
+        <v>14474.086912000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.020580</v>
+        <v>4.0205799999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.533000</v>
+        <v>965.53300000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.922800</v>
+        <v>-79.922799999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>14484.593701</v>
@@ -5726,73 +6142,73 @@
         <v>4.023498</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.455000</v>
+        <v>973.45500000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.985900</v>
+        <v>-87.985900000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>14495.473907</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.026521</v>
+        <v>4.0265209999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.689000</v>
+        <v>982.68899999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.163000</v>
+        <v>-103.163</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>14506.546629</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.029596</v>
+        <v>4.0295959999999997</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.109000</v>
+        <v>994.10900000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.939000</v>
+        <v>-124.93899999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>14517.192763</v>
+        <v>14517.192762999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.032554</v>
+        <v>4.0325540000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.875000</v>
+        <v>-143.875</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>14528.220776</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.035617</v>
+        <v>4.0356170000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.360000</v>
+        <v>1049.3599999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.527000</v>
+        <v>-229.52699999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>14539.219066</v>
@@ -5801,240 +6217,240 @@
         <v>4.038672</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.019000</v>
+        <v>-367.01900000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>14550.562571</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.041823</v>
+        <v>4.0418229999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-579.876000</v>
+        <v>-579.87599999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>14561.128381</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.044758</v>
+        <v>4.0447579999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1410.540000</v>
+        <v>1410.54</v>
       </c>
       <c r="BV22" s="1">
-        <v>-807.832000</v>
+        <v>-807.83199999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>14571.885906</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.047746</v>
+        <v>4.0477460000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1574.110000</v>
+        <v>1574.11</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1045.040000</v>
+        <v>-1045.04</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>14584.683855</v>
+        <v>14584.683854999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.051301</v>
+        <v>4.0513009999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>1990.110000</v>
+        <v>1990.11</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1599.870000</v>
+        <v>-1599.87</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>14411.536930</v>
+        <v>14411.53693</v>
       </c>
       <c r="B23" s="1">
-        <v>4.003205</v>
+        <v>4.0032050000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>902.685000</v>
+        <v>902.68499999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.647000</v>
+        <v>-195.64699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>14422.098754</v>
+        <v>14422.098754000001</v>
       </c>
       <c r="G23" s="1">
-        <v>4.006139</v>
+        <v>4.0061390000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>919.770000</v>
+        <v>919.77</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.315000</v>
+        <v>-165.315</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>14432.483975</v>
+        <v>14432.483974999999</v>
       </c>
       <c r="L23" s="1">
         <v>4.009023</v>
       </c>
       <c r="M23" s="1">
-        <v>940.893000</v>
+        <v>940.89300000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.434000</v>
+        <v>-118.434</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>14443.038841</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.011955</v>
+        <v>4.0119550000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>947.299000</v>
+        <v>947.29899999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.171000</v>
+        <v>-103.17100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>14453.833306</v>
       </c>
       <c r="V23" s="1">
-        <v>4.014954</v>
+        <v>4.0149540000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>953.516000</v>
+        <v>953.51599999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.599100</v>
+        <v>-89.599100000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>14464.381693</v>
+        <v>14464.381692999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.017884</v>
+        <v>4.0178839999999996</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.523000</v>
+        <v>960.52300000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.350500</v>
+        <v>-80.350499999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>14474.431664</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.020675</v>
+        <v>4.0206749999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.519000</v>
+        <v>965.51900000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.978100</v>
+        <v>-79.978099999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>14485.289553</v>
+        <v>14485.289553000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.023692</v>
+        <v>4.0236919999999996</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.468000</v>
+        <v>973.46799999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.008200</v>
+        <v>-88.008200000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>14496.195587</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.026721</v>
+        <v>4.0267210000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.694000</v>
+        <v>982.69399999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.181000</v>
+        <v>-103.181</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>14506.930004</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.029703</v>
+        <v>4.0297029999999996</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.151000</v>
+        <v>994.15099999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.936000</v>
+        <v>-124.93600000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>14517.569686</v>
+        <v>14517.569686000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.032658</v>
+        <v>4.0326579999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.891000</v>
+        <v>-143.89099999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>14528.580872</v>
@@ -6043,43 +6459,43 @@
         <v>4.035717</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.529000</v>
+        <v>-229.529</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>14539.913001</v>
+        <v>14539.913001000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.038865</v>
+        <v>4.0388650000000004</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.180000</v>
+        <v>1129.18</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.001000</v>
+        <v>-367.00099999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>14550.673707</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.041854</v>
+        <v>4.0418539999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1261.400000</v>
+        <v>1261.4000000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-579.886000</v>
+        <v>-579.88599999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>14561.247389</v>
@@ -6088,784 +6504,784 @@
         <v>4.044791</v>
       </c>
       <c r="BU23" s="1">
-        <v>1410.480000</v>
+        <v>1410.48</v>
       </c>
       <c r="BV23" s="1">
-        <v>-807.936000</v>
+        <v>-807.93600000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>14572.312670</v>
+        <v>14572.312669999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.047865</v>
+        <v>4.0478649999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1574.180000</v>
+        <v>1574.18</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1045.030000</v>
+        <v>-1045.03</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>14585.232957</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.051454</v>
+        <v>4.0514539999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>1989.130000</v>
+        <v>1989.13</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1600.370000</v>
+        <v>-1600.37</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>14411.969442</v>
       </c>
       <c r="B24" s="1">
-        <v>4.003325</v>
+        <v>4.0033250000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>902.739000</v>
+        <v>902.73900000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.678000</v>
+        <v>-195.678</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>14422.364100</v>
+        <v>14422.364100000001</v>
       </c>
       <c r="G24" s="1">
-        <v>4.006212</v>
+        <v>4.0062119999999997</v>
       </c>
       <c r="H24" s="1">
-        <v>919.476000</v>
+        <v>919.476</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.530000</v>
+        <v>-165.53</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>14432.829686</v>
+        <v>14432.829685999999</v>
       </c>
       <c r="L24" s="1">
-        <v>4.009119</v>
+        <v>4.0091190000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>941.047000</v>
+        <v>941.04700000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.408000</v>
+        <v>-118.408</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>14443.388520</v>
+        <v>14443.38852</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.012052</v>
+        <v>4.0120519999999997</v>
       </c>
       <c r="R24" s="1">
-        <v>947.344000</v>
+        <v>947.34400000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.177000</v>
+        <v>-103.17700000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>14454.177994</v>
       </c>
       <c r="V24" s="1">
-        <v>4.015049</v>
+        <v>4.0150490000000003</v>
       </c>
       <c r="W24" s="1">
-        <v>953.557000</v>
+        <v>953.55700000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.588300</v>
+        <v>-89.588300000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>14464.815231</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.018004</v>
+        <v>4.0180040000000004</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.673000</v>
+        <v>960.673</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.195400</v>
+        <v>-80.195400000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>14475.118094</v>
+        <v>14475.118093999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.020866</v>
+        <v>4.0208659999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.501000</v>
+        <v>965.50099999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.990800</v>
+        <v>-79.990799999999993</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>14485.637744</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.023788</v>
+        <v>4.0237879999999997</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.450000</v>
+        <v>973.45</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.011700</v>
+        <v>-88.011700000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>14496.554690</v>
+        <v>14496.554690000001</v>
       </c>
       <c r="AP24" s="1">
         <v>4.026821</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.698000</v>
+        <v>982.69799999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.169000</v>
+        <v>-103.169</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>14507.293604</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.029804</v>
+        <v>4.0298040000000004</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.116000</v>
+        <v>994.11599999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.935000</v>
+        <v>-124.935</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>14518.241271</v>
+        <v>14518.241271000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>4.032845</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.780000</v>
+        <v>1003.78</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.884000</v>
+        <v>-143.88399999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>14529.256919</v>
+        <v>14529.256918999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.035905</v>
+        <v>4.0359049999999996</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.360000</v>
+        <v>1049.3599999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.514000</v>
+        <v>-229.51400000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>14540.372760</v>
+        <v>14540.37276</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.038992</v>
+        <v>4.0389920000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.140000</v>
+        <v>1129.1400000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.998000</v>
+        <v>-366.99799999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>14551.095807</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.041971</v>
+        <v>4.0419710000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-579.857000</v>
+        <v>-579.85699999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>14561.698780</v>
+        <v>14561.698780000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.044916</v>
+        <v>4.0449159999999997</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.430000</v>
+        <v>1410.43</v>
       </c>
       <c r="BV24" s="1">
-        <v>-807.959000</v>
+        <v>-807.95899999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>14572.729774</v>
+        <v>14572.729773999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.047980</v>
+        <v>4.0479799999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1574.100000</v>
+        <v>1574.1</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1045.160000</v>
+        <v>-1045.1600000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>14585.764140</v>
+        <v>14585.764139999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.051601</v>
+        <v>4.0516009999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1990.270000</v>
+        <v>1990.27</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1599.410000</v>
+        <v>-1599.41</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>14412.239266</v>
       </c>
       <c r="B25" s="1">
-        <v>4.003400</v>
+        <v>4.0034000000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>902.755000</v>
+        <v>902.755</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.520000</v>
+        <v>-195.52</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>14422.706870</v>
+        <v>14422.70687</v>
       </c>
       <c r="G25" s="1">
-        <v>4.006307</v>
+        <v>4.0063069999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>919.509000</v>
+        <v>919.50900000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.555000</v>
+        <v>-165.55500000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>14433.172919</v>
+        <v>14433.172919000001</v>
       </c>
       <c r="L25" s="1">
-        <v>4.009215</v>
+        <v>4.0092150000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>941.157000</v>
+        <v>941.15700000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.438000</v>
+        <v>-118.438</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>14443.738696</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.012150</v>
+        <v>4.0121500000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>947.298000</v>
+        <v>947.298</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.210000</v>
+        <v>-103.21</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>14454.862970</v>
+        <v>14454.86297</v>
       </c>
       <c r="V25" s="1">
-        <v>4.015240</v>
+        <v>4.0152400000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>953.538000</v>
+        <v>953.53800000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.547700</v>
+        <v>-89.547700000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>14465.076614</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.018077</v>
+        <v>4.0180769999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.661000</v>
+        <v>960.66099999999994</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.271400</v>
+        <v>-80.2714</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>14475.461163</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.020961</v>
+        <v>4.0209609999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.509000</v>
+        <v>965.50900000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.993100</v>
+        <v>-79.993099999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>14485.988913</v>
+        <v>14485.988912999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.023886</v>
+        <v>4.0238860000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.456000</v>
+        <v>973.45600000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.015700</v>
+        <v>-88.015699999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>14496.953969</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.026932</v>
+        <v>4.0269320000000004</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.682000</v>
+        <v>982.68200000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.183000</v>
+        <v>-103.18300000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>14507.960232</v>
+        <v>14507.960231999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.029989</v>
+        <v>4.0299889999999996</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.123000</v>
+        <v>994.12300000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.963000</v>
+        <v>-124.96299999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>14518.654437</v>
+        <v>14518.654436999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.032960</v>
+        <v>4.0329600000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.810000</v>
+        <v>1003.81</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.917000</v>
+        <v>-143.917</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>14529.694390</v>
+        <v>14529.694390000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.036026</v>
+        <v>4.0360259999999997</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.499000</v>
+        <v>-229.499</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>14540.763644</v>
+        <v>14540.763644000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.039101</v>
+        <v>4.0391009999999996</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.190000</v>
+        <v>1129.19</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.018000</v>
+        <v>-367.01799999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>14551.491109</v>
+        <v>14551.491109000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.042081</v>
+        <v>4.0420809999999996</v>
       </c>
       <c r="BP25" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-579.898000</v>
+        <v>-579.89800000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>14562.124315</v>
+        <v>14562.124314999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.045035</v>
+        <v>4.0450350000000004</v>
       </c>
       <c r="BU25" s="1">
-        <v>1410.330000</v>
+        <v>1410.33</v>
       </c>
       <c r="BV25" s="1">
-        <v>-807.955000</v>
+        <v>-807.95500000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>14573.177692</v>
+        <v>14573.177691999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.048105</v>
+        <v>4.0481049999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1574.180000</v>
+        <v>1574.18</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1045.170000</v>
+        <v>-1045.17</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>14586.280508</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.051745</v>
+        <v>4.0517450000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>1989.330000</v>
+        <v>1989.33</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1598.300000</v>
+        <v>-1598.3</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>14412.578033</v>
       </c>
       <c r="B26" s="1">
-        <v>4.003494</v>
+        <v>4.0034939999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>902.714000</v>
+        <v>902.71400000000006</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.596000</v>
+        <v>-195.596</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>14423.052083</v>
       </c>
       <c r="G26" s="1">
-        <v>4.006403</v>
+        <v>4.0064029999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>919.733000</v>
+        <v>919.73299999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.189000</v>
+        <v>-165.18899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>14433.866325</v>
+        <v>14433.866325000001</v>
       </c>
       <c r="L26" s="1">
-        <v>4.009407</v>
+        <v>4.0094070000000004</v>
       </c>
       <c r="M26" s="1">
-        <v>941.214000</v>
+        <v>941.21400000000006</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.335000</v>
+        <v>-118.33499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>14444.430617</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.012342</v>
+        <v>4.0123420000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>947.297000</v>
+        <v>947.29700000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.214000</v>
+        <v>-103.214</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>14455.208714</v>
       </c>
       <c r="V26" s="1">
-        <v>4.015336</v>
+        <v>4.0153359999999996</v>
       </c>
       <c r="W26" s="1">
-        <v>953.461000</v>
+        <v>953.46100000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.555900</v>
+        <v>-89.555899999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>14465.425772</v>
+        <v>14465.425772000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.018174</v>
+        <v>4.0181740000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.684000</v>
+        <v>960.68399999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.234100</v>
+        <v>-80.234099999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>14475.804589</v>
+        <v>14475.804588999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.021057</v>
+        <v>4.0210569999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.529000</v>
+        <v>965.529</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.986300</v>
+        <v>-79.9863</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>14486.647599</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.024069</v>
+        <v>4.0240689999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.471000</v>
+        <v>973.471</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.013900</v>
+        <v>-88.013900000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>14497.460881</v>
+        <v>14497.460881000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.027072</v>
+        <v>4.0270720000000004</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.673000</v>
+        <v>982.673</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.169000</v>
+        <v>-103.169</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>14508.421970</v>
+        <v>14508.421969999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.030117</v>
+        <v>4.0301169999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.133000</v>
+        <v>994.13300000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.954000</v>
+        <v>-124.95399999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>14519.030437</v>
+        <v>14519.030436999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.033064</v>
+        <v>4.0330640000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.800000</v>
+        <v>1003.8</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.911000</v>
+        <v>-143.911</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>14530.054028</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.036126</v>
+        <v>4.0361260000000003</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.310000</v>
+        <v>1049.31</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.505000</v>
+        <v>-229.505</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>14541.140085</v>
+        <v>14541.140085000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.039206</v>
+        <v>4.0392060000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.991000</v>
+        <v>-366.99099999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>14551.924585</v>
+        <v>14551.924585000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.042201</v>
+        <v>4.0422010000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1261.400000</v>
+        <v>1261.4000000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-579.887000</v>
+        <v>-579.88699999999994</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>14562.555339</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.045154</v>
+        <v>4.0451540000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1410.250000</v>
+        <v>1410.25</v>
       </c>
       <c r="BV26" s="1">
-        <v>-807.906000</v>
+        <v>-807.90599999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>14573.598306</v>
@@ -6874,30 +7290,31 @@
         <v>4.048222</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1574.180000</v>
+        <v>1574.18</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1045.100000</v>
+        <v>-1045.0999999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>14586.805243</v>
+        <v>14586.805243000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.051890</v>
+        <v>4.0518900000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>1988.350000</v>
+        <v>1988.35</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1599.500000</v>
+        <v>-1599.5</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>